--- a/scraping/wikipedia/wikipedia_highest_grossing_films/data.xlsx
+++ b/scraping/wikipedia/wikipedia_highest_grossing_films/data.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\NAUKA\Python Nauka\data_science\scraping\wikipedia_highest_grossing_films\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A95A0F-FE7F-412C-9BF5-71ED70B90950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -190,8 +184,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,21 +248,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -306,7 +292,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -340,7 +326,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -375,10 +360,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -551,22 +535,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -583,7 +559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -600,7 +576,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -617,7 +593,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -634,7 +610,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -651,7 +627,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -668,7 +644,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -685,7 +661,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -702,7 +678,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -719,7 +695,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -736,7 +712,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -753,7 +729,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -770,7 +746,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>12</v>
       </c>
@@ -787,7 +763,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>13</v>
       </c>
@@ -804,7 +780,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>14</v>
       </c>
@@ -821,7 +797,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>15</v>
       </c>
@@ -838,7 +814,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>16</v>
       </c>
@@ -855,7 +831,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>17</v>
       </c>
@@ -872,7 +848,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>18</v>
       </c>
@@ -889,7 +865,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>19</v>
       </c>
@@ -906,7 +882,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>20</v>
       </c>
@@ -923,7 +899,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>21</v>
       </c>
@@ -940,7 +916,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>22</v>
       </c>
@@ -957,7 +933,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>23</v>
       </c>
@@ -974,7 +950,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>24</v>
       </c>
@@ -991,7 +967,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1008,7 +984,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1025,7 +1001,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1042,7 +1018,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1059,7 +1035,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1076,7 +1052,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1093,7 +1069,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1110,7 +1086,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1127,7 +1103,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1144,7 +1120,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1161,7 +1137,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1178,7 +1154,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1195,7 +1171,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1212,7 +1188,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1229,7 +1205,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1246,7 +1222,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1263,7 +1239,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1280,7 +1256,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1297,7 +1273,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1314,7 +1290,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1331,7 +1307,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1348,7 +1324,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1365,7 +1341,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1382,7 +1358,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1399,7 +1375,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1416,7 +1392,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>50</v>
       </c>
